--- a/分享demo/动态地图/demo1.xlsx
+++ b/分享demo/动态地图/demo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\pycharm\分享demo\动态地图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CC880A-8D4B-4ECC-A560-CD5235220FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C750228-CE59-4F2D-9F64-7D7394E31491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,8 +349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/分享demo/动态地图/demo1.xlsx
+++ b/分享demo/动态地图/demo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\pycharm\分享demo\动态地图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C750228-CE59-4F2D-9F64-7D7394E31491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF56D6BB-5A14-42FD-B12A-0E88D13E8A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,8 +349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/分享demo/动态地图/demo1.xlsx
+++ b/分享demo/动态地图/demo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\pycharm\分享demo\动态地图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF56D6BB-5A14-42FD-B12A-0E88D13E8A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D9CA5D-56B9-4785-8990-1C9A665662EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,8 +349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/分享demo/动态地图/demo1.xlsx
+++ b/分享demo/动态地图/demo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\pycharm\分享demo\动态地图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D9CA5D-56B9-4785-8990-1C9A665662EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583C115-7448-4335-93DA-76A4BD065271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,7 +350,7 @@
   <dimension ref="A1:R324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/分享demo/动态地图/demo1.xlsx
+++ b/分享demo/动态地图/demo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\pycharm\分享demo\动态地图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583C115-7448-4335-93DA-76A4BD065271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5538AE90-F201-4F7D-8344-2161897E09E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,7 +350,7 @@
   <dimension ref="A1:R324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
